--- a/data/menu.xlsx
+++ b/data/menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wooniety\Documents\GitHub\SPAM-Menu\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091F9507-1995-48FB-9F8A-DF7F0BEADBB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D629F29-E11F-43A0-832B-D4C9CED90436}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{206FB5CC-0F6B-43DC-8D27-D40B50F91AF6}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Item</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Wheels</t>
+  </si>
+  <si>
+    <t>Milo</t>
   </si>
 </sst>
 </file>
@@ -418,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D55C96-4474-4AFE-BEFA-C14C0D9BE6AF}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -504,6 +507,23 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>1.2</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
